--- a/src_files/data_files/emissiondata_maf2020.xlsx
+++ b/src_files/data_files/emissiondata_maf2020.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\BB\bb-master\north_european_model\src_files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\BB\bb-master\north_european_model\src_files\data_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{462F92A6-C5B5-4F01-BE41-239D69C505B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4FD63B2-ACC0-440B-8D22-7484019CD873}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{3E3DEAD5-6055-4DB8-B424-EEC0B5E366CE}"/>
+    <workbookView xWindow="-28920" yWindow="-105" windowWidth="29040" windowHeight="17520" xr2:uid="{3E3DEAD5-6055-4DB8-B424-EEC0B5E366CE}"/>
   </bookViews>
   <sheets>
     <sheet name="emissiondata" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <definedName name="Bottom">OFFSET(#REF!,1,0,COUNT(#REF!),1)</definedName>
     <definedName name="Labels">OFFSET(Bottom,0,-1)</definedName>
   </definedNames>
-  <calcPr calcId="191029" iterateDelta="1E-4"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="10">
   <si>
     <t>CO2</t>
   </si>
@@ -61,6 +61,12 @@
   </si>
   <si>
     <t>Scenario</t>
+  </si>
+  <si>
+    <t>group</t>
+  </si>
+  <si>
+    <t>ETS_CO2</t>
   </si>
 </sst>
 </file>
@@ -454,10 +460,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6EE8876-E835-4A4A-890C-1021AFC844BB}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="D2" sqref="D2:D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -465,7 +471,7 @@
     <col min="1" max="1" width="24.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>7</v>
       </c>
@@ -476,10 +482,13 @@
         <v>5</v>
       </c>
       <c r="D1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
@@ -489,11 +498,14 @@
       <c r="C2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="2">
         <v>105</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -503,11 +515,14 @@
       <c r="C3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D3">
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3">
         <v>140</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
@@ -517,11 +532,14 @@
       <c r="C4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D4">
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4">
         <v>120</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
@@ -531,7 +549,10 @@
       <c r="C5" t="s">
         <v>0</v>
       </c>
-      <c r="D5">
+      <c r="D5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5">
         <v>105</v>
       </c>
     </row>

--- a/src_files/data_files/emissiondata_maf2020.xlsx
+++ b/src_files/data_files/emissiondata_maf2020.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\BB\bb-master\north_european_model\src_files\data_files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\backbone\north_european_model (2IMatch)\src_files\data_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4FD63B2-ACC0-440B-8D22-7484019CD873}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F179088E-D1A1-4C68-8628-5FD6521BD4DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-105" windowWidth="29040" windowHeight="17520" xr2:uid="{3E3DEAD5-6055-4DB8-B424-EEC0B5E366CE}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="41496" windowHeight="16776" xr2:uid="{3E3DEAD5-6055-4DB8-B424-EEC0B5E366CE}"/>
   </bookViews>
   <sheets>
     <sheet name="emissiondata" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="11">
   <si>
     <t>CO2</t>
   </si>
@@ -67,6 +67,9 @@
   </si>
   <si>
     <t>ETS_CO2</t>
+  </si>
+  <si>
+    <t>H2 balanced</t>
   </si>
 </sst>
 </file>
@@ -460,18 +463,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6EE8876-E835-4A4A-890C-1021AFC844BB}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D5"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.5703125" customWidth="1"/>
+    <col min="1" max="1" width="24.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>7</v>
       </c>
@@ -488,7 +491,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
@@ -505,7 +508,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -522,7 +525,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
@@ -539,7 +542,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
@@ -553,6 +556,23 @@
         <v>9</v>
       </c>
       <c r="E5">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6">
+        <v>2035</v>
+      </c>
+      <c r="C6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6">
         <v>105</v>
       </c>
     </row>

--- a/src_files/data_files/emissiondata_maf2020.xlsx
+++ b/src_files/data_files/emissiondata_maf2020.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\BB\bb-master\north_european_model\src_files\data_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4FD63B2-ACC0-440B-8D22-7484019CD873}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD44A64B-3EFD-42AD-A02C-6548C167DF77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-105" windowWidth="29040" windowHeight="17520" xr2:uid="{3E3DEAD5-6055-4DB8-B424-EEC0B5E366CE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{3E3DEAD5-6055-4DB8-B424-EEC0B5E366CE}"/>
   </bookViews>
   <sheets>
     <sheet name="emissiondata" sheetId="1" r:id="rId1"/>
@@ -66,7 +66,7 @@
     <t>group</t>
   </si>
   <si>
-    <t>ETS_CO2</t>
+    <t>ETS-CO2</t>
   </si>
 </sst>
 </file>

--- a/src_files/data_files/emissiondata_maf2020.xlsx
+++ b/src_files/data_files/emissiondata_maf2020.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\backbone\north_european_model (2IMatch)\src_files\data_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F179088E-D1A1-4C68-8628-5FD6521BD4DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{925790C0-EADE-48EE-8182-E38B41CD96D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="41496" windowHeight="16776" xr2:uid="{3E3DEAD5-6055-4DB8-B424-EEC0B5E366CE}"/>
+    <workbookView xWindow="-28920" yWindow="-75" windowWidth="29040" windowHeight="17520" xr2:uid="{3E3DEAD5-6055-4DB8-B424-EEC0B5E366CE}"/>
   </bookViews>
   <sheets>
     <sheet name="emissiondata" sheetId="1" r:id="rId1"/>
@@ -66,17 +66,17 @@
     <t>group</t>
   </si>
   <si>
-    <t>ETS_CO2</t>
-  </si>
-  <si>
     <t>H2 balanced</t>
+  </si>
+  <si>
+    <t>ETS-CO2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -95,6 +95,12 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
@@ -466,15 +472,15 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.5546875" customWidth="1"/>
+    <col min="1" max="1" width="24.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>7</v>
       </c>
@@ -491,7 +497,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
@@ -502,13 +508,13 @@
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" s="2">
         <v>105</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -519,13 +525,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3">
         <v>140</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
@@ -536,13 +542,13 @@
         <v>0</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4">
         <v>120</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
@@ -553,15 +559,15 @@
         <v>0</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5">
         <v>105</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B6">
         <v>2035</v>
@@ -570,13 +576,14 @@
         <v>0</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6">
         <v>105</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
